--- a/notes/1802-Mini-Compact-Flash-BOM.xlsx
+++ b/notes/1802-Mini-Compact-Flash-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AFF1623-27E7-4E16-92B9-2592A2F1E1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C83EE3B-0E52-4AC8-AA8D-A192F23F6AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18120" yWindow="-120" windowWidth="18240" windowHeight="28590" xr2:uid="{41E1A1E5-C1FC-4043-9E65-8CBBFB1D39B7}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
   <si>
     <t>Jumper shunts 0.1"</t>
   </si>
   <si>
-    <t>Straight header 3 pins 0.1"</t>
-  </si>
-  <si>
     <t>CD4049</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>CD40103</t>
   </si>
   <si>
-    <t>Straight dual row header 21 position 0.1"</t>
-  </si>
-  <si>
     <t>DIP socket 16 pin 0.3"</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>SSQ-139-03-T-S</t>
   </si>
   <si>
-    <t>Socket 39 pin 0.1" long tail for stacking</t>
-  </si>
-  <si>
     <t>Sullins</t>
   </si>
   <si>
@@ -255,9 +246,6 @@
     <t>SR215C104KAA</t>
   </si>
   <si>
-    <t>Socket 20 pin 0.1" long tail for stacking</t>
-  </si>
-  <si>
     <t>SSQ-120-03-T-S</t>
   </si>
   <si>
@@ -310,6 +298,78 @@
   </si>
   <si>
     <t>COMPACT FLASH INTERFACE</t>
+  </si>
+  <si>
+    <t>Please refer to these notes as applicable for the parts list below:</t>
+  </si>
+  <si>
+    <t>*A</t>
+  </si>
+  <si>
+    <t>*B</t>
+  </si>
+  <si>
+    <t>*C</t>
+  </si>
+  <si>
+    <t>The header pins for configuration jumpers are cut down from longer strips.</t>
+  </si>
+  <si>
+    <t>The Samtec 39 pin connector, when ordering from Digikey, will always show zero stock because they are made-to-order. They will ship same or next day though.</t>
+  </si>
+  <si>
+    <t>These parts may be omitted if group port selection will not be used. See assembly notes.</t>
+  </si>
+  <si>
+    <t>U3,5</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U5-6</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>U7-8</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U9-10</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D1-4</t>
+  </si>
+  <si>
+    <t>C1-4</t>
+  </si>
+  <si>
+    <t>Straight header 3 pins 0.1" (*A)</t>
+  </si>
+  <si>
+    <t>Socket 39 pin 0.1" long tail (*B)</t>
+  </si>
+  <si>
+    <t>Straight dual row header 21 position (*C)</t>
+  </si>
+  <si>
+    <t>Socket 20 pin 0.1" long tail (*B) (*C)</t>
   </si>
 </sst>
 </file>
@@ -753,958 +813,1089 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.42578125" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="3" max="3" width="12.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.42578125" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="E10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="H10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7">
         <v>0.66</v>
       </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <f>H6*G6</f>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <f>I13*H13</f>
         <v>0.66</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="7">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <f t="shared" ref="I7:I15" si="0">H7*G7</f>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" ref="J14:J22" si="0">I14*H14</f>
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>0.66</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I15" s="7">
         <v>2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="J15" s="7">
         <f t="shared" si="0"/>
         <v>1.32</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="7">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="7">
         <v>0.66</v>
       </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
         <f t="shared" si="0"/>
         <v>0.66</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="7">
         <v>0.66</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I17" s="7">
         <v>2</v>
       </c>
-      <c r="I10" s="7">
+      <c r="J17" s="7">
         <f t="shared" si="0"/>
         <v>1.32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="7">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="7">
         <v>0.66</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
         <f t="shared" si="0"/>
         <v>0.66</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="7">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="7">
         <v>0.66</v>
       </c>
-      <c r="H12" s="14">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
         <f t="shared" si="0"/>
         <v>0.66</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="B20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="7">
         <v>1.68</v>
       </c>
-      <c r="H13" s="7">
+      <c r="I20" s="7">
         <v>2</v>
       </c>
-      <c r="I13" s="7">
+      <c r="J20" s="7">
         <f t="shared" si="0"/>
         <v>3.36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="7">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="7">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="7">
         <v>0.66</v>
       </c>
-      <c r="H15" s="14">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="I22" s="14">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
         <f t="shared" si="0"/>
         <v>0.66</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="7">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="7">
         <v>0.1</v>
       </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <f t="shared" ref="I18:I21" si="1">H18*G18</f>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" ref="J25:J28" si="1">I25*H25</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="15">
         <v>333973</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H26" s="7">
         <v>0.12</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>4</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="7">
+      <c r="B27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>0.1</v>
       </c>
-      <c r="H20" s="7">
+      <c r="I27" s="7">
         <v>4</v>
       </c>
-      <c r="I20" s="7">
+      <c r="J27" s="7">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>4</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="15">
+      <c r="F28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="15">
         <v>544921</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H28" s="7">
         <v>0.19</v>
       </c>
-      <c r="H21" s="17">
+      <c r="I28" s="17">
         <v>4</v>
       </c>
-      <c r="I21" s="7">
+      <c r="J28" s="7">
         <f t="shared" si="1"/>
         <v>0.76</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>1</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>1</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="7">
+      <c r="F31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="7">
         <v>8.56</v>
       </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
-        <f t="shared" ref="I24:I26" si="2">H24*G24</f>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" ref="J31:J33" si="2">I31*H31</f>
         <v>8.56</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>4</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="B32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="7">
         <v>0.51</v>
       </c>
-      <c r="H25" s="7">
+      <c r="I32" s="7">
         <f>12/40</f>
         <v>0.3</v>
       </c>
-      <c r="I25" s="7">
+      <c r="J32" s="7">
         <f t="shared" si="2"/>
         <v>0.153</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="D33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="7">
         <v>0.1</v>
       </c>
-      <c r="H26" s="17">
+      <c r="I33" s="17">
         <v>4</v>
       </c>
-      <c r="I26" s="7">
+      <c r="J33" s="7">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>1</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="6" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="7">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="7">
+        <f>I34*H34</f>
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1</v>
-      </c>
-      <c r="I27" s="7">
-        <f>H27*G27</f>
-        <v>4.5199999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>1</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="F35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="7">
         <v>0.86</v>
       </c>
-      <c r="H28" s="7">
+      <c r="I35" s="7">
         <f>21/25</f>
         <v>0.84</v>
       </c>
-      <c r="I28" s="7">
-        <f t="shared" ref="I28:I29" si="3">H28*G28</f>
+      <c r="J35" s="7">
+        <f t="shared" ref="J35:J36" si="3">I35*H35</f>
         <v>0.72239999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>1</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="7">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="7">
         <v>2.5</v>
       </c>
-      <c r="H29" s="7">
-        <v>1</v>
-      </c>
-      <c r="I29" s="7">
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>8</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="7">
+      <c r="B39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="7">
         <v>0.19</v>
       </c>
-      <c r="H32" s="7">
+      <c r="I39" s="7">
         <v>8</v>
       </c>
-      <c r="I32" s="7">
-        <f t="shared" ref="I32:I34" si="4">H32*G32</f>
+      <c r="J39" s="7">
+        <f t="shared" ref="J39:J41" si="4">I39*H39</f>
         <v>1.52</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>4</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="B40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="7">
         <v>0.19</v>
       </c>
-      <c r="H33" s="7">
+      <c r="I40" s="7">
         <v>4</v>
       </c>
-      <c r="I33" s="7">
+      <c r="J40" s="7">
         <f t="shared" si="4"/>
         <v>0.76</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <v>1</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="5" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>1</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="7">
+      <c r="H41" s="7">
         <v>0.26</v>
       </c>
-      <c r="H34" s="7">
-        <v>1</v>
-      </c>
-      <c r="I34" s="7">
+      <c r="I41" s="7">
+        <v>1</v>
+      </c>
+      <c r="J41" s="7">
         <f t="shared" si="4"/>
         <v>0.26</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>4</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="15">
+      <c r="B44" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="15">
         <v>393474</v>
       </c>
-      <c r="G37" s="11">
+      <c r="H44" s="11">
         <v>0.49</v>
       </c>
-      <c r="H37" s="7">
+      <c r="I44" s="7">
         <v>4</v>
       </c>
-      <c r="I37" s="7">
-        <f t="shared" ref="I37" si="5">H37*G37</f>
+      <c r="J44" s="7">
+        <f t="shared" ref="J44" si="5">I44*H44</f>
         <v>1.96</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>1</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="7">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>1</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="7">
         <f>1.95</f>
         <v>1.95</v>
       </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38" s="7">
-        <f t="shared" ref="I38" si="6">H38*G38</f>
+      <c r="I45" s="7">
+        <v>1</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" ref="J45" si="6">I45*H45</f>
         <v>1.95</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G40" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I40" s="7">
-        <f>SUM(I6:I38)</f>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H47" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J47" s="7">
+        <f>SUM(J13:J45)</f>
         <v>35.125400000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="11"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="11"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="11"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="11"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="11"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="11"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F53" s="15"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G52" s="15"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="11"/>
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="11"/>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="11"/>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="11"/>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="11"/>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="10"/>
+      <c r="H56" s="11"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="11"/>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
-      <c r="D58" s="12"/>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B59" s="11"/>
-      <c r="D59" s="12"/>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="11"/>
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G60" s="15"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="11"/>
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B63" s="11"/>
-      <c r="G63" s="11"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="11"/>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
       <c r="B64" s="11"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="11"/>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="11"/>
-      <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="10"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="11"/>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="11"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="11"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="11"/>
+      <c r="E66" s="12"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="11"/>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="10"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="11"/>
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/notes/1802-Mini-Compact-Flash-BOM.xlsx
+++ b/notes/1802-Mini-Compact-Flash-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C83EE3B-0E52-4AC8-AA8D-A192F23F6AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E002417-EEA9-40FF-AB71-C8111FF13554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18120" yWindow="-120" windowWidth="18240" windowHeight="28590" xr2:uid="{41E1A1E5-C1FC-4043-9E65-8CBBFB1D39B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
   <si>
     <t>Jumper shunts 0.1"</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>Socket 20 pin 0.1" long tail (*B) (*C)</t>
+  </si>
+  <si>
+    <t>PREC040SAAN-RC</t>
   </si>
 </sst>
 </file>
@@ -816,7 +819,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1455,7 +1458,7 @@
         <v>36</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>12</v>
